--- a/data/annotations/museum_social_media_sample_by_decile-results-v2.xlsx
+++ b/data/annotations/museum_social_media_sample_by_decile-results-v2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaballatore/Dropbox/DRBX_Docs/Work/Projects/github_projects/museums-in-the-pandemic/data/annotations/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA202E45-48B9-8E4C-B758-20F270DE890D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="18600" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -76,8 +82,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +146,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -186,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,9 +232,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,6 +284,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,14 +477,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -456,7 +513,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -467,7 +524,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -478,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -489,7 +546,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -500,7 +557,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -511,7 +568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -522,7 +579,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -533,7 +590,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -544,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -555,7 +612,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -566,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -577,7 +634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -588,7 +645,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -599,7 +656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -610,7 +667,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -622,6 +679,28 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B17">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/annotations/museum_social_media_sample_by_decile-results-v2.xlsx
+++ b/data/annotations/museum_social_media_sample_by_decile-results-v2.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaballatore/Dropbox/DRBX_Docs/Work/Projects/github_projects/museums-in-the-pandemic/data/annotations/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA202E45-48B9-8E4C-B758-20F270DE890D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="18600" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -82,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,14 +140,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -200,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,27 +218,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,24 +252,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -477,21 +427,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -513,7 +456,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -524,7 +467,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -535,7 +478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -546,7 +489,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -557,7 +500,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -568,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -579,7 +522,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -590,7 +533,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -601,7 +544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -612,7 +555,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -623,7 +566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -634,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -645,7 +588,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -656,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -667,7 +610,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -679,28 +622,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B17">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>